--- a/examples/cache/cache.xlsx
+++ b/examples/cache/cache.xlsx
@@ -7,7 +7,9 @@
     <workbookView xWindow="76940" yWindow="-500" windowWidth="30360" windowHeight="18240" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="cache" sheetId="1" r:id="rId1"/>
+    <sheet name="ints" sheetId="3" r:id="rId1"/>
+    <sheet name="longs" sheetId="2" r:id="rId2"/>
+    <sheet name="doubles" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="130407" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="3">
   <si>
     <t>stride</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,7 +113,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>cache!$B$1</c:f>
+              <c:f>ints!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -133,7 +135,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>cache!$A$2:$A$82</c:f>
+              <c:f>ints!$A$2:$A$82</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="81"/>
@@ -385,7 +387,1293 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>cache!$B$2:$B$82</c:f>
+              <c:f>ints!$B$2:$B$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="81"/>
+                <c:pt idx="0">
+                  <c:v>0.863805</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.578799</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.841355</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.09091</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.32528</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.57244</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.82146</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0643</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.31984</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.57195</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.91272</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.12194</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.672519999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.785</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.08088</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.18722</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.83007</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.56529</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.39683</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.69256</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.81505</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.96083</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.01615</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.08512</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.26574</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.22297</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.278090000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.57014</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.82996</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.22359</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.87474</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10.2029</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10.5533</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>11.1837</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.7282</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.49596</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.22364</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>11.2512</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>12.4053</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>12.442</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>12.4499</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>12.439</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>12.4885</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>12.1883</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>12.4821</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>12.4688</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8.638350000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9.53685</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7.88895</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7.88291</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7.5392</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.29363</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6.57021</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.90287</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.65823</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.14305</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.10553</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.25932</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.630381</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.09224</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.644401</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.38683</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.636976</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.640355</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.673493</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.670624</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.359983</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.350135</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.349522</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.376144</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.394436</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.387061</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.463857</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.456481</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.540378</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.600602</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.66071</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.720887</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.781183</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.841305</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.901233</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="560068632"/>
+        <c:axId val="560338856"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="560068632"/>
+        <c:scaling>
+          <c:logBase val="10.0"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>stride</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="560338856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="560338856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="560068632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>time for strided copy of 1Gb worth of doubles</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>longs!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>charm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>longs!$A$2:$A$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="81"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>600.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>700.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>900.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3000.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6000.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7000.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8000.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9000.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20000.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>30000.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40000.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>50000.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>60000.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>70000.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>80000.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>90000.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>600000.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>700000.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>800000.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>900000.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.0E6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.0E6</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7.0E6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>9.0E6</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.0E7</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.0E7</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.0E7</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5.0E7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.0E7</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7.0E7</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>8.0E7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>9.0E7</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.0E8</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.0E8</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.0E8</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4.0E8</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5.0E8</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6.0E8</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.0E8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>8.0E8</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>9.0E8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>longs!$B$2:$B$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="81"/>
+                <c:pt idx="0">
+                  <c:v>0.736978</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.18848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.782421</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.03151</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.28636</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.55169</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.80256</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.06353</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.26112</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.45768</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.34617</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.54789</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.42381</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.20637</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.34246</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.32222</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.40688</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.43197</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.35161</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.50308</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.55487</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.65121</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.29711</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.71102</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.40428</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.79834</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.40441</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.4364</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.5321</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.40318</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.90346</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.15739</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.17759</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.89258</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.51466</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.25263</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.63108</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.2345</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.23953</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.10834</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.2521</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.66498</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.51286</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.5248</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.50978</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.36095</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.97071</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.7985</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.33309</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.46288</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.954734</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.46274</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.04042</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.731883</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.743409</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.797852</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.713932</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.857443</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.51045</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.678751</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.52567</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.680914</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.523598</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.542775</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.278124</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.273367</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.29597</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.331396</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.271812</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.275059</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.289902</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.288268</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.283851</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.34338</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.397655</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.457745</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.517746</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.577933</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.638713</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.698344</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.759682</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="775965624"/>
+        <c:axId val="775980984"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="775965624"/>
+        <c:scaling>
+          <c:logBase val="10.0"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>stride</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="775980984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="775980984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="775965624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>time for strided copy of 1Gb worth of doubles</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>doubles!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>charm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>doubles!$A$2:$A$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="81"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>600.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>700.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>900.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3000.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6000.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7000.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8000.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9000.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20000.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>30000.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40000.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>50000.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>60000.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>70000.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>80000.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>90000.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>600000.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>700000.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>800000.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>900000.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.0E6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.0E6</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7.0E6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>9.0E6</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.0E7</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.0E7</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.0E7</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5.0E7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.0E7</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7.0E7</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>8.0E7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>9.0E7</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.0E8</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.0E8</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.0E8</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4.0E8</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5.0E8</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6.0E8</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.0E8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>8.0E8</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>9.0E8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>doubles!$B$2:$B$82</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="81"/>
@@ -642,7 +1930,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>cache!$C$1</c:f>
+              <c:f>doubles!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -681,7 +1969,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>cache!$A$2:$A$82</c:f>
+              <c:f>doubles!$A$2:$A$82</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="81"/>
@@ -933,7 +2221,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>cache!$C$2:$C$82</c:f>
+              <c:f>doubles!$C$2:$C$82</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="81"/>
@@ -1185,12 +2473,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="673385400"/>
-        <c:axId val="673382152"/>
+        <c:axId val="744987416"/>
+        <c:axId val="745134520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="673385400"/>
+        <c:axId val="744987416"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -1220,12 +2507,12 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="673382152"/>
+        <c:crossAx val="745134520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="673382152"/>
+        <c:axId val="745134520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1251,7 +2538,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="673385400"/>
+        <c:crossAx val="744987416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1271,6 +2558,76 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1625,10 +2982,1369 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A1:B82"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B82"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.86380500000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.57879899999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.84135499999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1.09091</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1.32528</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1.5724400000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1.8214600000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2.0642999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>2.3198400000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>2.5719500000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>4.9127200000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>30</v>
+      </c>
+      <c r="B13">
+        <v>6.1219400000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>40</v>
+      </c>
+      <c r="B14">
+        <v>6.6725199999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>50</v>
+      </c>
+      <c r="B15">
+        <v>6.7850000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>60</v>
+      </c>
+      <c r="B16">
+        <v>7.0808799999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>70</v>
+      </c>
+      <c r="B17">
+        <v>7.1872199999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>80</v>
+      </c>
+      <c r="B18">
+        <v>6.8300700000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>90</v>
+      </c>
+      <c r="B19">
+        <v>6.5652900000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>100</v>
+      </c>
+      <c r="B20">
+        <v>6.3968299999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>200</v>
+      </c>
+      <c r="B21">
+        <v>6.6925600000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>300</v>
+      </c>
+      <c r="B22">
+        <v>6.8150500000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>400</v>
+      </c>
+      <c r="B23">
+        <v>6.9608299999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>500</v>
+      </c>
+      <c r="B24">
+        <v>7.0161499999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>600</v>
+      </c>
+      <c r="B25">
+        <v>7.0851199999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>700</v>
+      </c>
+      <c r="B26">
+        <v>7.2657400000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>800</v>
+      </c>
+      <c r="B27">
+        <v>7.2229700000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>900</v>
+      </c>
+      <c r="B28">
+        <v>8.2780900000000006</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>1000</v>
+      </c>
+      <c r="B29">
+        <v>8.5701400000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>2000</v>
+      </c>
+      <c r="B30">
+        <v>8.8299599999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>3000</v>
+      </c>
+      <c r="B31">
+        <v>9.2235899999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>4000</v>
+      </c>
+      <c r="B32">
+        <v>8.8747399999999992</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>5000</v>
+      </c>
+      <c r="B33">
+        <v>10.2029</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>6000</v>
+      </c>
+      <c r="B34">
+        <v>10.5533</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>7000</v>
+      </c>
+      <c r="B35">
+        <v>11.1837</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>8000</v>
+      </c>
+      <c r="B36">
+        <v>9.7281999999999993</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>9000</v>
+      </c>
+      <c r="B37">
+        <v>8.4959600000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>10000</v>
+      </c>
+      <c r="B38">
+        <v>8.2236399999999996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>20000</v>
+      </c>
+      <c r="B39">
+        <v>11.251200000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>30000</v>
+      </c>
+      <c r="B40">
+        <v>12.4053</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>40000</v>
+      </c>
+      <c r="B41">
+        <v>12.442</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>50000</v>
+      </c>
+      <c r="B42">
+        <v>12.4499</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>60000</v>
+      </c>
+      <c r="B43">
+        <v>12.439</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>70000</v>
+      </c>
+      <c r="B44">
+        <v>12.4885</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <v>80000</v>
+      </c>
+      <c r="B45">
+        <v>12.1883</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <v>90000</v>
+      </c>
+      <c r="B46">
+        <v>12.482100000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <v>100000</v>
+      </c>
+      <c r="B47">
+        <v>12.4688</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <v>200000</v>
+      </c>
+      <c r="B48">
+        <v>8.6383500000000009</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <v>300000</v>
+      </c>
+      <c r="B49">
+        <v>9.5368499999999994</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <v>400000</v>
+      </c>
+      <c r="B50">
+        <v>7.8889500000000004</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51">
+        <v>500000</v>
+      </c>
+      <c r="B51">
+        <v>7.8829099999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52">
+        <v>600000</v>
+      </c>
+      <c r="B52">
+        <v>7.5392000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53">
+        <v>700000</v>
+      </c>
+      <c r="B53">
+        <v>6.2936300000000003</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54">
+        <v>800000</v>
+      </c>
+      <c r="B54">
+        <v>6.5702100000000003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55">
+        <v>900000</v>
+      </c>
+      <c r="B55">
+        <v>1.9028700000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56">
+        <v>1000000</v>
+      </c>
+      <c r="B56">
+        <v>2.6582300000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57">
+        <v>2000000</v>
+      </c>
+      <c r="B57">
+        <v>1.1430499999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58">
+        <v>3000000</v>
+      </c>
+      <c r="B58">
+        <v>1.1055299999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59">
+        <v>4000000</v>
+      </c>
+      <c r="B59">
+        <v>1.25932</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60">
+        <v>5000000</v>
+      </c>
+      <c r="B60">
+        <v>0.63038099999999997</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61">
+        <v>6000000</v>
+      </c>
+      <c r="B61">
+        <v>1.0922400000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62">
+        <v>7000000</v>
+      </c>
+      <c r="B62">
+        <v>0.644401</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63">
+        <v>8000000</v>
+      </c>
+      <c r="B63">
+        <v>1.38683</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64">
+        <v>9000000</v>
+      </c>
+      <c r="B64">
+        <v>0.63697599999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65">
+        <v>10000000</v>
+      </c>
+      <c r="B65">
+        <v>0.64035500000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66">
+        <v>20000000</v>
+      </c>
+      <c r="B66">
+        <v>0.67349300000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67">
+        <v>30000000</v>
+      </c>
+      <c r="B67">
+        <v>0.670624</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68">
+        <v>40000000</v>
+      </c>
+      <c r="B68">
+        <v>0.359983</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69">
+        <v>50000000</v>
+      </c>
+      <c r="B69">
+        <v>0.35013499999999997</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70">
+        <v>60000000</v>
+      </c>
+      <c r="B70">
+        <v>0.349522</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71">
+        <v>70000000</v>
+      </c>
+      <c r="B71">
+        <v>0.37614399999999998</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72">
+        <v>80000000</v>
+      </c>
+      <c r="B72">
+        <v>0.39443600000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73">
+        <v>90000000</v>
+      </c>
+      <c r="B73">
+        <v>0.38706099999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74">
+        <v>100000000</v>
+      </c>
+      <c r="B74">
+        <v>0.46385700000000002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75">
+        <v>200000000</v>
+      </c>
+      <c r="B75">
+        <v>0.45648100000000003</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76">
+        <v>300000000</v>
+      </c>
+      <c r="B76">
+        <v>0.54037800000000002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77">
+        <v>400000000</v>
+      </c>
+      <c r="B77">
+        <v>0.60060199999999997</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78">
+        <v>500000000</v>
+      </c>
+      <c r="B78">
+        <v>0.66071000000000002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79">
+        <v>600000000</v>
+      </c>
+      <c r="B79">
+        <v>0.72088700000000006</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80">
+        <v>700000000</v>
+      </c>
+      <c r="B80">
+        <v>0.78118299999999996</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81">
+        <v>800000000</v>
+      </c>
+      <c r="B81">
+        <v>0.84130499999999997</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82">
+        <v>900000000</v>
+      </c>
+      <c r="B82">
+        <v>0.90123299999999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A1:B82"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.73697800000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1.18848</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.78242100000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1.0315099999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1.2863599999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1.55169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1.8025599999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2.0635300000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>2.26112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>2.4576799999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>3.3461699999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>30</v>
+      </c>
+      <c r="B13">
+        <v>3.5478900000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>40</v>
+      </c>
+      <c r="B14">
+        <v>3.42381</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>50</v>
+      </c>
+      <c r="B15">
+        <v>3.2063700000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>60</v>
+      </c>
+      <c r="B16">
+        <v>3.34246</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>70</v>
+      </c>
+      <c r="B17">
+        <v>3.3222200000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>80</v>
+      </c>
+      <c r="B18">
+        <v>3.4068800000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>90</v>
+      </c>
+      <c r="B19">
+        <v>3.4319700000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>100</v>
+      </c>
+      <c r="B20">
+        <v>3.35161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>200</v>
+      </c>
+      <c r="B21">
+        <v>3.5030800000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>300</v>
+      </c>
+      <c r="B22">
+        <v>3.5548700000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>400</v>
+      </c>
+      <c r="B23">
+        <v>3.6512099999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>500</v>
+      </c>
+      <c r="B24">
+        <v>4.29711</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>600</v>
+      </c>
+      <c r="B25">
+        <v>4.7110200000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>700</v>
+      </c>
+      <c r="B26">
+        <v>4.40428</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>800</v>
+      </c>
+      <c r="B27">
+        <v>3.79834</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>900</v>
+      </c>
+      <c r="B28">
+        <v>4.4044100000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>1000</v>
+      </c>
+      <c r="B29">
+        <v>4.4363999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>2000</v>
+      </c>
+      <c r="B30">
+        <v>4.5320999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>3000</v>
+      </c>
+      <c r="B31">
+        <v>5.4031799999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>4000</v>
+      </c>
+      <c r="B32">
+        <v>4.9034599999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>5000</v>
+      </c>
+      <c r="B33">
+        <v>4.1573900000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>6000</v>
+      </c>
+      <c r="B34">
+        <v>7.1775900000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>7000</v>
+      </c>
+      <c r="B35">
+        <v>4.8925799999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>8000</v>
+      </c>
+      <c r="B36">
+        <v>6.5146600000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>9000</v>
+      </c>
+      <c r="B37">
+        <v>5.2526299999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>10000</v>
+      </c>
+      <c r="B38">
+        <v>5.6310799999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>20000</v>
+      </c>
+      <c r="B39">
+        <v>6.2344999999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>30000</v>
+      </c>
+      <c r="B40">
+        <v>6.2395300000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>40000</v>
+      </c>
+      <c r="B41">
+        <v>6.1083400000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>50000</v>
+      </c>
+      <c r="B42">
+        <v>6.2521000000000004</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>60000</v>
+      </c>
+      <c r="B43">
+        <v>5.6649799999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>70000</v>
+      </c>
+      <c r="B44">
+        <v>5.5128599999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <v>80000</v>
+      </c>
+      <c r="B45">
+        <v>5.5247999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <v>90000</v>
+      </c>
+      <c r="B46">
+        <v>4.5097800000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <v>100000</v>
+      </c>
+      <c r="B47">
+        <v>4.3609499999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <v>200000</v>
+      </c>
+      <c r="B48">
+        <v>3.97071</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <v>300000</v>
+      </c>
+      <c r="B49">
+        <v>3.7985000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <v>400000</v>
+      </c>
+      <c r="B50">
+        <v>3.3330899999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51">
+        <v>500000</v>
+      </c>
+      <c r="B51">
+        <v>1.46288</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52">
+        <v>600000</v>
+      </c>
+      <c r="B52">
+        <v>0.95473399999999997</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53">
+        <v>700000</v>
+      </c>
+      <c r="B53">
+        <v>2.4627400000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54">
+        <v>800000</v>
+      </c>
+      <c r="B54">
+        <v>1.0404199999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55">
+        <v>900000</v>
+      </c>
+      <c r="B55">
+        <v>0.73188299999999995</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56">
+        <v>1000000</v>
+      </c>
+      <c r="B56">
+        <v>0.74340899999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57">
+        <v>2000000</v>
+      </c>
+      <c r="B57">
+        <v>0.79785200000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58">
+        <v>3000000</v>
+      </c>
+      <c r="B58">
+        <v>0.71393200000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59">
+        <v>4000000</v>
+      </c>
+      <c r="B59">
+        <v>0.85744299999999996</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60">
+        <v>5000000</v>
+      </c>
+      <c r="B60">
+        <v>0.51044999999999996</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61">
+        <v>6000000</v>
+      </c>
+      <c r="B61">
+        <v>0.67875099999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62">
+        <v>7000000</v>
+      </c>
+      <c r="B62">
+        <v>0.52566999999999997</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63">
+        <v>8000000</v>
+      </c>
+      <c r="B63">
+        <v>0.68091400000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64">
+        <v>9000000</v>
+      </c>
+      <c r="B64">
+        <v>0.52359800000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65">
+        <v>10000000</v>
+      </c>
+      <c r="B65">
+        <v>0.54277500000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66">
+        <v>20000000</v>
+      </c>
+      <c r="B66">
+        <v>0.27812399999999998</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67">
+        <v>30000000</v>
+      </c>
+      <c r="B67">
+        <v>0.27336700000000003</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68">
+        <v>40000000</v>
+      </c>
+      <c r="B68">
+        <v>0.29597000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69">
+        <v>50000000</v>
+      </c>
+      <c r="B69">
+        <v>0.33139600000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70">
+        <v>60000000</v>
+      </c>
+      <c r="B70">
+        <v>0.271812</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71">
+        <v>70000000</v>
+      </c>
+      <c r="B71">
+        <v>0.275059</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72">
+        <v>80000000</v>
+      </c>
+      <c r="B72">
+        <v>0.28990199999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73">
+        <v>90000000</v>
+      </c>
+      <c r="B73">
+        <v>0.28826800000000002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74">
+        <v>100000000</v>
+      </c>
+      <c r="B74">
+        <v>0.28385100000000002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75">
+        <v>200000000</v>
+      </c>
+      <c r="B75">
+        <v>0.34338000000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76">
+        <v>300000000</v>
+      </c>
+      <c r="B76">
+        <v>0.39765499999999998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77">
+        <v>400000000</v>
+      </c>
+      <c r="B77">
+        <v>0.45774500000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78">
+        <v>500000000</v>
+      </c>
+      <c r="B78">
+        <v>0.51774600000000004</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79">
+        <v>600000000</v>
+      </c>
+      <c r="B79">
+        <v>0.57793300000000003</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80">
+        <v>700000000</v>
+      </c>
+      <c r="B80">
+        <v>0.63871299999999998</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81">
+        <v>800000000</v>
+      </c>
+      <c r="B81">
+        <v>0.69834399999999996</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82">
+        <v>900000000</v>
+      </c>
+      <c r="B82">
+        <v>0.75968199999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:C82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C82"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -2536,6 +5252,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/examples/cache/cache.xlsx
+++ b/examples/cache/cache.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>stride</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>charm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pyre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pyre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pyre</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -125,7 +137,10 @@
           <c:spPr>
             <a:ln w="28575">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -639,11 +654,564 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="560068632"/>
-        <c:axId val="560338856"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ints!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pyre</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+              <a:headEnd type="none" w="med" len="med"/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="77933C"/>
+              </a:solidFill>
+              <a:ln w="12700" cap="rnd" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+                <a:headEnd type="none" w="med" len="med"/>
+                <a:tailEnd type="none" w="med" len="med"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ints!$A$2:$A$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="81"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>600.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>700.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>900.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3000.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6000.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7000.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8000.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9000.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20000.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>30000.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40000.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>50000.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>60000.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>70000.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>80000.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>90000.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>600000.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>700000.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>800000.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>900000.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.0E6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.0E6</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7.0E6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>9.0E6</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.0E7</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.0E7</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.0E7</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5.0E7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.0E7</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7.0E7</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>8.0E7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>9.0E7</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.0E8</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.0E8</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.0E8</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4.0E8</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5.0E8</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6.0E8</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.0E8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>8.0E8</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>9.0E8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ints!$D$2:$D$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="81"/>
+                <c:pt idx="0">
+                  <c:v>1.35609</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.81541</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.55585</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.44625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.16337</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.26439</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.50638</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.2471</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.09748</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.7936</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.103</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.0273</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.04149</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.46064</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.4515</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.39236</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.32722</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.4371</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11.932</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.2602</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13.4858</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13.4499</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14.3314</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14.4326</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14.227</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>15.3496</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>16.0312</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14.7224</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>20.1972</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>28.3988</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>32.3791</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>36.4194</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42.2904</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>46.2105</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>48.1419</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>48.8987</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>49.0787</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>51.2897</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>50.1225</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>30.2103</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>49.4931</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>33.4289</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>17.5696</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>23.2109</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>10.4783</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>15.9253</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>11.2003</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9.87998</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>12.9897</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>11.155</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>8.57695</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7.33196</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>9.40903</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.35615</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.67871</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.5956</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.13788</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.63464</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.13194</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.14029</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.39007</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.42347</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.33524</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.40437</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.09799</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.49838</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.52024</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.51583</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.834934</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.50928</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.5666</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.860489</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.49562</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.65746</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.17257</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.33878</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.50626</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3.38196</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.54883</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.0058</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.17287</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="632756216"/>
+        <c:axId val="632773384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="560068632"/>
+        <c:axId val="632756216"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -673,12 +1241,12 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="560338856"/>
+        <c:crossAx val="632773384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="560338856"/>
+        <c:axId val="632773384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -704,7 +1272,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="560068632"/>
+        <c:crossAx val="632756216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1282,11 +1850,557 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="775965624"/>
-        <c:axId val="775980984"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>longs!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pyre</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>longs!$A$2:$A$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="81"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>600.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>700.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>900.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3000.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6000.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7000.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8000.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9000.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20000.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>30000.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40000.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>50000.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>60000.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>70000.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>80000.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>90000.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>600000.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>700000.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>800000.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>900000.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.0E6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.0E6</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7.0E6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>9.0E6</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.0E7</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.0E7</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.0E7</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5.0E7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.0E7</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7.0E7</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>8.0E7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>9.0E7</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.0E8</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.0E8</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.0E8</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4.0E8</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5.0E8</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6.0E8</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.0E8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>8.0E8</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>9.0E8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>longs!$D$2:$D$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="81"/>
+                <c:pt idx="0">
+                  <c:v>1.22913</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.86947</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.34147</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.26821</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.60533</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.24015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.1786</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.83039</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.01698</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.26145</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.0143</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.06994</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.18825</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.62537</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.30245</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.93015</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.36705</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.4498</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.42528</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.57289</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.12155</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.60989</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.15949</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.84266</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10.0566</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10.6523</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>11.247</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10.0846</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>17.5423</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>20.0525</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>24.0581</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>26.2269</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>24.5443</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>26.3779</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>25.545</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>26.502</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>26.4959</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>16.2813</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>16.006</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>13.3119</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8.06198</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>12.2286</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.43554</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>11.2258</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.33359</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.62637</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7.21468</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.17331</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.34329</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.25958</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.07761</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.70058</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.15952</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.0775</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.50298</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.20814</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.10729</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.64996</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.09334</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.06347</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.62106</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.26557</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.05466</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.895043</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.45763</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.773291</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.51859</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.43139</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.48007</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.40607</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.47086</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.49718</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.823321</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.07699</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.24434</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.41056</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.28692</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.74437</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.62043</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.07793</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.24505</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="632849784"/>
+        <c:axId val="632854056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="775965624"/>
+        <c:axId val="632849784"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -1316,12 +2430,12 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="775980984"/>
+        <c:crossAx val="632854056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="775980984"/>
+        <c:axId val="632854056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1347,7 +2461,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="775965624"/>
+        <c:crossAx val="632849784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1414,10 +2528,26 @@
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
             </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="43000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
             <c:size val="4"/>
+            <c:spPr>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -2473,11 +3603,558 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="744987416"/>
-        <c:axId val="745134520"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>doubles!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pyre</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="43000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>doubles!$A$2:$A$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="81"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>600.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>700.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>900.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3000.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6000.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7000.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8000.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9000.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20000.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>30000.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40000.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>50000.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>60000.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>70000.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>80000.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>90000.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>600000.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>700000.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>800000.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>900000.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.0E6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.0E6</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7.0E6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>9.0E6</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.0E7</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.0E7</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.0E7</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5.0E7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.0E7</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7.0E7</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>8.0E7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>9.0E7</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.0E8</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.0E8</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.0E8</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4.0E8</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5.0E8</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6.0E8</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.0E8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>8.0E8</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>9.0E8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>doubles!$D$2:$D$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="81"/>
+                <c:pt idx="0">
+                  <c:v>1.34674</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.58343</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.35488</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.29237</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.63446</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.57555</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.23513</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.60568</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.37045</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.61948</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.06414</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.1396</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.91492</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.37965</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.61867</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.2008</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.41447</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.80472</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.51363</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.59715</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.07996</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.8417</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.06902</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.48539</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.34209</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10.6275</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.46951</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10.1071</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>16.2013</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>20.289</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>24.0017</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>24.4545</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>26.2146</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>26.2979</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>25.4835</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>26.4457</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>26.4219</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>17.5512</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>17.6545</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>13.0798</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.05123</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10.5715</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.42103</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>11.2256</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.32918</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.78479</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7.20635</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.17482</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.34214</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.25863</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.07129</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.70083</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.16307</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.08505</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.79352</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.23471</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.81054</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.6428</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.06604</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.07782</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.6194</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.25737</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.05821</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.60678</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.45747</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.48176</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.51877</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.43151</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.47926</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.40531</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.759104</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.49623</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.822285</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.07612</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.24254</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3.11905</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.28567</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.74301</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.61891</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.07631</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.24295</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="632904744"/>
+        <c:axId val="632918728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="744987416"/>
+        <c:axId val="632904744"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -2507,12 +4184,12 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="745134520"/>
+        <c:crossAx val="632918728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="745134520"/>
+        <c:axId val="632918728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2538,7 +4215,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="744987416"/>
+        <c:crossAx val="632904744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2562,15 +4239,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
+      <xdr:colOff>25400</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
+      <xdr:colOff>749300</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2982,668 +4659,1838 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:B82"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B82"/>
+      <selection activeCell="D2" sqref="D2:D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>0.86380500000000005</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="D2">
+        <v>1.35609</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>0.57879899999999995</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="D3">
+        <v>1.81541</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>0.84135499999999996</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="D4">
+        <v>4.5558500000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>1.09091</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="D5">
+        <v>5.44625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>1.32528</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="D6">
+        <v>6.1633699999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>1.5724400000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="D7">
+        <v>5.2643899999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <v>1.8214600000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="D8">
+        <v>7.5063800000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <v>2.0642999999999998</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="D9">
+        <v>8.2470999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <v>2.3198400000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="D10">
+        <v>7.09748</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
         <v>2.5719500000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="D11">
+        <v>7.7935999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>20</v>
       </c>
       <c r="B12">
         <v>4.9127200000000002</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="D12">
+        <v>13.103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>30</v>
       </c>
       <c r="B13">
         <v>6.1219400000000004</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="D13">
+        <v>10.0273</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>40</v>
       </c>
       <c r="B14">
         <v>6.6725199999999996</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="D14">
+        <v>8.0414899999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>50</v>
       </c>
       <c r="B15">
         <v>6.7850000000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="D15">
+        <v>8.4606399999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>60</v>
       </c>
       <c r="B16">
         <v>7.0808799999999996</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="D16">
+        <v>10.451499999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>70</v>
       </c>
       <c r="B17">
         <v>7.1872199999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="D17">
+        <v>8.39236</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>80</v>
       </c>
       <c r="B18">
         <v>6.8300700000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="D18">
+        <v>8.3272200000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>90</v>
       </c>
       <c r="B19">
         <v>6.5652900000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="D19">
+        <v>10.437099999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>100</v>
       </c>
       <c r="B20">
         <v>6.3968299999999996</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="D20">
+        <v>11.932</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>200</v>
       </c>
       <c r="B21">
         <v>6.6925600000000003</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="D21">
+        <v>13.260199999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>300</v>
       </c>
       <c r="B22">
         <v>6.8150500000000003</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="D22">
+        <v>13.485799999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>400</v>
       </c>
       <c r="B23">
         <v>6.9608299999999996</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="D23">
+        <v>13.4499</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>500</v>
       </c>
       <c r="B24">
         <v>7.0161499999999997</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="D24">
+        <v>14.3314</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>600</v>
       </c>
       <c r="B25">
         <v>7.0851199999999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="D25">
+        <v>14.432600000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>700</v>
       </c>
       <c r="B26">
         <v>7.2657400000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="D26">
+        <v>14.227</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>800</v>
       </c>
       <c r="B27">
         <v>7.2229700000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="D27">
+        <v>15.349600000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>900</v>
       </c>
       <c r="B28">
         <v>8.2780900000000006</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="D28">
+        <v>16.031199999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>1000</v>
       </c>
       <c r="B29">
         <v>8.5701400000000003</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="D29">
+        <v>14.7224</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>2000</v>
       </c>
       <c r="B30">
         <v>8.8299599999999998</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="D30">
+        <v>20.197199999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>3000</v>
       </c>
       <c r="B31">
         <v>9.2235899999999997</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="D31">
+        <v>28.398800000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>4000</v>
       </c>
       <c r="B32">
         <v>8.8747399999999992</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="D32">
+        <v>32.379100000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>5000</v>
       </c>
       <c r="B33">
         <v>10.2029</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="D33">
+        <v>36.419400000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>6000</v>
       </c>
       <c r="B34">
         <v>10.5533</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="D34">
+        <v>42.290399999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>7000</v>
       </c>
       <c r="B35">
         <v>11.1837</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="D35">
+        <v>46.210500000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>8000</v>
       </c>
       <c r="B36">
         <v>9.7281999999999993</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="D36">
+        <v>48.1419</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>9000</v>
       </c>
       <c r="B37">
         <v>8.4959600000000002</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="D37">
+        <v>48.898699999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>10000</v>
       </c>
       <c r="B38">
         <v>8.2236399999999996</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="D38">
+        <v>49.078699999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>20000</v>
       </c>
       <c r="B39">
         <v>11.251200000000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="D39">
+        <v>51.289700000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>30000</v>
       </c>
       <c r="B40">
         <v>12.4053</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="D40">
+        <v>50.122500000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41">
         <v>40000</v>
       </c>
       <c r="B41">
         <v>12.442</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="D41">
+        <v>30.2103</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42">
         <v>50000</v>
       </c>
       <c r="B42">
         <v>12.4499</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="D42">
+        <v>49.493099999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43">
         <v>60000</v>
       </c>
       <c r="B43">
         <v>12.439</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="D43">
+        <v>33.428899999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44">
         <v>70000</v>
       </c>
       <c r="B44">
         <v>12.4885</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="D44">
+        <v>17.569600000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45">
         <v>80000</v>
       </c>
       <c r="B45">
         <v>12.1883</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="D45">
+        <v>23.210899999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46">
         <v>90000</v>
       </c>
       <c r="B46">
         <v>12.482100000000001</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="D46">
+        <v>10.478300000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47">
         <v>100000</v>
       </c>
       <c r="B47">
         <v>12.4688</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="D47">
+        <v>15.9253</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48">
         <v>200000</v>
       </c>
       <c r="B48">
         <v>8.6383500000000009</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="D48">
+        <v>11.2003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49">
         <v>300000</v>
       </c>
       <c r="B49">
         <v>9.5368499999999994</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="D49">
+        <v>9.8799799999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50">
         <v>400000</v>
       </c>
       <c r="B50">
         <v>7.8889500000000004</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="D50">
+        <v>12.989699999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51">
         <v>500000</v>
       </c>
       <c r="B51">
         <v>7.8829099999999999</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="D51">
+        <v>11.154999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52">
         <v>600000</v>
       </c>
       <c r="B52">
         <v>7.5392000000000001</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="D52">
+        <v>8.5769500000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53">
         <v>700000</v>
       </c>
       <c r="B53">
         <v>6.2936300000000003</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
+      <c r="D53">
+        <v>7.3319599999999996</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54">
         <v>800000</v>
       </c>
       <c r="B54">
         <v>6.5702100000000003</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
+      <c r="D54">
+        <v>9.4090299999999996</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55">
         <v>900000</v>
       </c>
       <c r="B55">
         <v>1.9028700000000001</v>
       </c>
-    </row>
-    <row r="56" spans="1:2">
+      <c r="D55">
+        <v>4.3561500000000004</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56">
         <v>1000000</v>
       </c>
       <c r="B56">
         <v>2.6582300000000001</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
+      <c r="D56">
+        <v>5.6787099999999997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57">
         <v>2000000</v>
       </c>
       <c r="B57">
         <v>1.1430499999999999</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="D57">
+        <v>4.5956000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58">
         <v>3000000</v>
       </c>
       <c r="B58">
         <v>1.1055299999999999</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
+      <c r="D58">
+        <v>3.13788</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59">
         <v>4000000</v>
       </c>
       <c r="B59">
         <v>1.25932</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
+      <c r="D59">
+        <v>5.6346400000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60">
         <v>5000000</v>
       </c>
       <c r="B60">
         <v>0.63038099999999997</v>
       </c>
-    </row>
-    <row r="61" spans="1:2">
+      <c r="D60">
+        <v>3.1319400000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61">
         <v>6000000</v>
       </c>
       <c r="B61">
         <v>1.0922400000000001</v>
       </c>
-    </row>
-    <row r="62" spans="1:2">
+      <c r="D61">
+        <v>3.1402899999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62">
         <v>7000000</v>
       </c>
       <c r="B62">
         <v>0.644401</v>
       </c>
-    </row>
-    <row r="63" spans="1:2">
+      <c r="D62">
+        <v>1.3900699999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63">
         <v>8000000</v>
       </c>
       <c r="B63">
         <v>1.38683</v>
       </c>
-    </row>
-    <row r="64" spans="1:2">
+      <c r="D63">
+        <v>6.42347</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64">
         <v>9000000</v>
       </c>
       <c r="B64">
         <v>0.63697599999999999</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
+      <c r="D64">
+        <v>3.3352400000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65">
         <v>10000000</v>
       </c>
       <c r="B65">
         <v>0.64035500000000001</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
+      <c r="D65">
+        <v>1.4043699999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66">
         <v>20000000</v>
       </c>
       <c r="B66">
         <v>0.67349300000000001</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
+      <c r="D66">
+        <v>1.09799</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67">
         <v>30000000</v>
       </c>
       <c r="B67">
         <v>0.670624</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
+      <c r="D67">
+        <v>2.49838</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68">
         <v>40000000</v>
       </c>
       <c r="B68">
         <v>0.359983</v>
       </c>
-    </row>
-    <row r="69" spans="1:2">
+      <c r="D68">
+        <v>2.5202399999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69">
         <v>50000000</v>
       </c>
       <c r="B69">
         <v>0.35013499999999997</v>
       </c>
-    </row>
-    <row r="70" spans="1:2">
+      <c r="D69">
+        <v>2.5158299999999998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70">
         <v>60000000</v>
       </c>
       <c r="B70">
         <v>0.349522</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
+      <c r="D70">
+        <v>0.83493399999999995</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71">
         <v>70000000</v>
       </c>
       <c r="B71">
         <v>0.37614399999999998</v>
       </c>
-    </row>
-    <row r="72" spans="1:2">
+      <c r="D71">
+        <v>2.50928</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72">
         <v>80000000</v>
       </c>
       <c r="B72">
         <v>0.39443600000000001</v>
       </c>
-    </row>
-    <row r="73" spans="1:2">
+      <c r="D72">
+        <v>2.5666000000000002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73">
         <v>90000000</v>
       </c>
       <c r="B73">
         <v>0.38706099999999999</v>
       </c>
-    </row>
-    <row r="74" spans="1:2">
+      <c r="D73">
+        <v>0.86048899999999995</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74">
         <v>100000000</v>
       </c>
       <c r="B74">
         <v>0.46385700000000002</v>
       </c>
-    </row>
-    <row r="75" spans="1:2">
+      <c r="D74">
+        <v>2.4956200000000002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75">
         <v>200000000</v>
       </c>
       <c r="B75">
         <v>0.45648100000000003</v>
       </c>
-    </row>
-    <row r="76" spans="1:2">
+      <c r="D75">
+        <v>2.6574599999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76">
         <v>300000000</v>
       </c>
       <c r="B76">
         <v>0.54037800000000002</v>
       </c>
-    </row>
-    <row r="77" spans="1:2">
+      <c r="D76">
+        <v>1.1725699999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77">
         <v>400000000</v>
       </c>
       <c r="B77">
         <v>0.60060199999999997</v>
       </c>
-    </row>
-    <row r="78" spans="1:2">
+      <c r="D77">
+        <v>1.3387800000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78">
         <v>500000000</v>
       </c>
       <c r="B78">
         <v>0.66071000000000002</v>
       </c>
-    </row>
-    <row r="79" spans="1:2">
+      <c r="D78">
+        <v>1.5062599999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79">
         <v>600000000</v>
       </c>
       <c r="B79">
         <v>0.72088700000000006</v>
       </c>
-    </row>
-    <row r="80" spans="1:2">
+      <c r="D79">
+        <v>3.3819599999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80">
         <v>700000000</v>
       </c>
       <c r="B80">
         <v>0.78118299999999996</v>
       </c>
-    </row>
-    <row r="81" spans="1:2">
+      <c r="D80">
+        <v>3.5488300000000002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81">
         <v>800000000</v>
       </c>
       <c r="B81">
         <v>0.84130499999999997</v>
       </c>
-    </row>
-    <row r="82" spans="1:2">
+      <c r="D81">
+        <v>2.0057999999999998</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82">
         <v>900000000</v>
       </c>
       <c r="B82">
         <v>0.90123299999999995</v>
+      </c>
+      <c r="D82">
+        <v>2.1728700000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A1:D82"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D82"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.73697800000000002</v>
+      </c>
+      <c r="D2">
+        <v>1.2291300000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1.18848</v>
+      </c>
+      <c r="D3">
+        <v>1.86947</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.78242100000000003</v>
+      </c>
+      <c r="D4">
+        <v>4.3414700000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1.0315099999999999</v>
+      </c>
+      <c r="D5">
+        <v>3.2682099999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1.2863599999999999</v>
+      </c>
+      <c r="D6">
+        <v>5.6053300000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1.55169</v>
+      </c>
+      <c r="D7">
+        <v>6.2401499999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1.8025599999999999</v>
+      </c>
+      <c r="D8">
+        <v>5.1786000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2.0635300000000001</v>
+      </c>
+      <c r="D9">
+        <v>5.8303900000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>2.26112</v>
+      </c>
+      <c r="D10">
+        <v>8.0169800000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>2.4576799999999999</v>
+      </c>
+      <c r="D11">
+        <v>8.26145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>3.3461699999999999</v>
+      </c>
+      <c r="D12">
+        <v>4.0143000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>30</v>
+      </c>
+      <c r="B13">
+        <v>3.5478900000000002</v>
+      </c>
+      <c r="D13">
+        <v>6.0699399999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>40</v>
+      </c>
+      <c r="B14">
+        <v>3.42381</v>
+      </c>
+      <c r="D14">
+        <v>4.18825</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>50</v>
+      </c>
+      <c r="B15">
+        <v>3.2063700000000002</v>
+      </c>
+      <c r="D15">
+        <v>4.6253700000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>60</v>
+      </c>
+      <c r="B16">
+        <v>3.34246</v>
+      </c>
+      <c r="D16">
+        <v>6.3024500000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>70</v>
+      </c>
+      <c r="B17">
+        <v>3.3222200000000002</v>
+      </c>
+      <c r="D17">
+        <v>8.9301499999999994</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>80</v>
+      </c>
+      <c r="B18">
+        <v>3.4068800000000001</v>
+      </c>
+      <c r="D18">
+        <v>6.3670499999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>90</v>
+      </c>
+      <c r="B19">
+        <v>3.4319700000000002</v>
+      </c>
+      <c r="D19">
+        <v>7.4497999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>100</v>
+      </c>
+      <c r="B20">
+        <v>3.35161</v>
+      </c>
+      <c r="D20">
+        <v>7.4252799999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>200</v>
+      </c>
+      <c r="B21">
+        <v>3.5030800000000002</v>
+      </c>
+      <c r="D21">
+        <v>7.5728900000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>300</v>
+      </c>
+      <c r="B22">
+        <v>3.5548700000000002</v>
+      </c>
+      <c r="D22">
+        <v>8.1215499999999992</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>400</v>
+      </c>
+      <c r="B23">
+        <v>3.6512099999999998</v>
+      </c>
+      <c r="D23">
+        <v>8.60989</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>500</v>
+      </c>
+      <c r="B24">
+        <v>4.29711</v>
+      </c>
+      <c r="D24">
+        <v>9.1594899999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>600</v>
+      </c>
+      <c r="B25">
+        <v>4.7110200000000004</v>
+      </c>
+      <c r="D25">
+        <v>7.8426600000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>700</v>
+      </c>
+      <c r="B26">
+        <v>4.40428</v>
+      </c>
+      <c r="D26">
+        <v>10.0566</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>800</v>
+      </c>
+      <c r="B27">
+        <v>3.79834</v>
+      </c>
+      <c r="D27">
+        <v>10.6523</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>900</v>
+      </c>
+      <c r="B28">
+        <v>4.4044100000000004</v>
+      </c>
+      <c r="D28">
+        <v>11.247</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>1000</v>
+      </c>
+      <c r="B29">
+        <v>4.4363999999999999</v>
+      </c>
+      <c r="D29">
+        <v>10.0846</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>2000</v>
+      </c>
+      <c r="B30">
+        <v>4.5320999999999998</v>
+      </c>
+      <c r="D30">
+        <v>17.542300000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>3000</v>
+      </c>
+      <c r="B31">
+        <v>5.4031799999999999</v>
+      </c>
+      <c r="D31">
+        <v>20.052499999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>4000</v>
+      </c>
+      <c r="B32">
+        <v>4.9034599999999999</v>
+      </c>
+      <c r="D32">
+        <v>24.0581</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>5000</v>
+      </c>
+      <c r="B33">
+        <v>4.1573900000000004</v>
+      </c>
+      <c r="D33">
+        <v>26.226900000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>6000</v>
+      </c>
+      <c r="B34">
+        <v>7.1775900000000004</v>
+      </c>
+      <c r="D34">
+        <v>24.5443</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>7000</v>
+      </c>
+      <c r="B35">
+        <v>4.8925799999999997</v>
+      </c>
+      <c r="D35">
+        <v>26.3779</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>8000</v>
+      </c>
+      <c r="B36">
+        <v>6.5146600000000001</v>
+      </c>
+      <c r="D36">
+        <v>25.545000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>9000</v>
+      </c>
+      <c r="B37">
+        <v>5.2526299999999999</v>
+      </c>
+      <c r="D37">
+        <v>26.501999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>10000</v>
+      </c>
+      <c r="B38">
+        <v>5.6310799999999999</v>
+      </c>
+      <c r="D38">
+        <v>26.495899999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>20000</v>
+      </c>
+      <c r="B39">
+        <v>6.2344999999999997</v>
+      </c>
+      <c r="D39">
+        <v>16.281300000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>30000</v>
+      </c>
+      <c r="B40">
+        <v>6.2395300000000002</v>
+      </c>
+      <c r="D40">
+        <v>16.006</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>40000</v>
+      </c>
+      <c r="B41">
+        <v>6.1083400000000001</v>
+      </c>
+      <c r="D41">
+        <v>13.3119</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <v>50000</v>
+      </c>
+      <c r="B42">
+        <v>6.2521000000000004</v>
+      </c>
+      <c r="D42">
+        <v>8.0619800000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <v>60000</v>
+      </c>
+      <c r="B43">
+        <v>5.6649799999999999</v>
+      </c>
+      <c r="D43">
+        <v>12.2286</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
+        <v>70000</v>
+      </c>
+      <c r="B44">
+        <v>5.5128599999999999</v>
+      </c>
+      <c r="D44">
+        <v>4.4355399999999996</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <v>80000</v>
+      </c>
+      <c r="B45">
+        <v>5.5247999999999999</v>
+      </c>
+      <c r="D45">
+        <v>11.2258</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <v>90000</v>
+      </c>
+      <c r="B46">
+        <v>4.5097800000000001</v>
+      </c>
+      <c r="D46">
+        <v>6.3335900000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47">
+        <v>100000</v>
+      </c>
+      <c r="B47">
+        <v>4.3609499999999999</v>
+      </c>
+      <c r="D47">
+        <v>6.6263699999999996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48">
+        <v>200000</v>
+      </c>
+      <c r="B48">
+        <v>3.97071</v>
+      </c>
+      <c r="D48">
+        <v>7.2146800000000004</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <v>300000</v>
+      </c>
+      <c r="B49">
+        <v>3.7985000000000002</v>
+      </c>
+      <c r="D49">
+        <v>6.1733099999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
+        <v>400000</v>
+      </c>
+      <c r="B50">
+        <v>3.3330899999999999</v>
+      </c>
+      <c r="D50">
+        <v>4.3432899999999997</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
+        <v>500000</v>
+      </c>
+      <c r="B51">
+        <v>1.46288</v>
+      </c>
+      <c r="D51">
+        <v>2.2595800000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52">
+        <v>600000</v>
+      </c>
+      <c r="B52">
+        <v>0.95473399999999997</v>
+      </c>
+      <c r="D52">
+        <v>2.07761</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53">
+        <v>700000</v>
+      </c>
+      <c r="B53">
+        <v>2.4627400000000002</v>
+      </c>
+      <c r="D53">
+        <v>1.70058</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54">
+        <v>800000</v>
+      </c>
+      <c r="B54">
+        <v>1.0404199999999999</v>
+      </c>
+      <c r="D54">
+        <v>5.1595199999999997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55">
+        <v>900000</v>
+      </c>
+      <c r="B55">
+        <v>0.73188299999999995</v>
+      </c>
+      <c r="D55">
+        <v>3.0775000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56">
+        <v>1000000</v>
+      </c>
+      <c r="B56">
+        <v>0.74340899999999999</v>
+      </c>
+      <c r="D56">
+        <v>3.50298</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57">
+        <v>2000000</v>
+      </c>
+      <c r="B57">
+        <v>0.79785200000000001</v>
+      </c>
+      <c r="D57">
+        <v>4.2081400000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58">
+        <v>3000000</v>
+      </c>
+      <c r="B58">
+        <v>0.71393200000000001</v>
+      </c>
+      <c r="D58">
+        <v>1.1072900000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59">
+        <v>4000000</v>
+      </c>
+      <c r="B59">
+        <v>0.85744299999999996</v>
+      </c>
+      <c r="D59">
+        <v>4.6499600000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60">
+        <v>5000000</v>
+      </c>
+      <c r="B60">
+        <v>0.51044999999999996</v>
+      </c>
+      <c r="D60">
+        <v>1.09334</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61">
+        <v>6000000</v>
+      </c>
+      <c r="B61">
+        <v>0.67875099999999999</v>
+      </c>
+      <c r="D61">
+        <v>1.0634699999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62">
+        <v>7000000</v>
+      </c>
+      <c r="B62">
+        <v>0.52566999999999997</v>
+      </c>
+      <c r="D62">
+        <v>2.6210599999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63">
+        <v>8000000</v>
+      </c>
+      <c r="B63">
+        <v>0.68091400000000002</v>
+      </c>
+      <c r="D63">
+        <v>4.2655700000000003</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64">
+        <v>9000000</v>
+      </c>
+      <c r="B64">
+        <v>0.52359800000000001</v>
+      </c>
+      <c r="D64">
+        <v>1.0546599999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65">
+        <v>10000000</v>
+      </c>
+      <c r="B65">
+        <v>0.54277500000000001</v>
+      </c>
+      <c r="D65">
+        <v>0.89504300000000003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66">
+        <v>20000000</v>
+      </c>
+      <c r="B66">
+        <v>0.27812399999999998</v>
+      </c>
+      <c r="D66">
+        <v>2.45763</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67">
+        <v>30000000</v>
+      </c>
+      <c r="B67">
+        <v>0.27336700000000003</v>
+      </c>
+      <c r="D67">
+        <v>0.77329099999999995</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68">
+        <v>40000000</v>
+      </c>
+      <c r="B68">
+        <v>0.29597000000000001</v>
+      </c>
+      <c r="D68">
+        <v>2.5185900000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69">
+        <v>50000000</v>
+      </c>
+      <c r="B69">
+        <v>0.33139600000000002</v>
+      </c>
+      <c r="D69">
+        <v>2.4313899999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70">
+        <v>60000000</v>
+      </c>
+      <c r="B70">
+        <v>0.271812</v>
+      </c>
+      <c r="D70">
+        <v>2.48007</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71">
+        <v>70000000</v>
+      </c>
+      <c r="B71">
+        <v>0.275059</v>
+      </c>
+      <c r="D71">
+        <v>2.4060700000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72">
+        <v>80000000</v>
+      </c>
+      <c r="B72">
+        <v>0.28990199999999999</v>
+      </c>
+      <c r="D72">
+        <v>2.4708600000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73">
+        <v>90000000</v>
+      </c>
+      <c r="B73">
+        <v>0.28826800000000002</v>
+      </c>
+      <c r="D73">
+        <v>2.4971800000000002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74">
+        <v>100000000</v>
+      </c>
+      <c r="B74">
+        <v>0.28385100000000002</v>
+      </c>
+      <c r="D74">
+        <v>0.82332099999999997</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75">
+        <v>200000000</v>
+      </c>
+      <c r="B75">
+        <v>0.34338000000000002</v>
+      </c>
+      <c r="D75">
+        <v>1.0769899999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76">
+        <v>300000000</v>
+      </c>
+      <c r="B76">
+        <v>0.39765499999999998</v>
+      </c>
+      <c r="D76">
+        <v>1.24434</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77">
+        <v>400000000</v>
+      </c>
+      <c r="B77">
+        <v>0.45774500000000001</v>
+      </c>
+      <c r="D77">
+        <v>1.41056</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78">
+        <v>500000000</v>
+      </c>
+      <c r="B78">
+        <v>0.51774600000000004</v>
+      </c>
+      <c r="D78">
+        <v>3.2869199999999998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79">
+        <v>600000000</v>
+      </c>
+      <c r="B79">
+        <v>0.57793300000000003</v>
+      </c>
+      <c r="D79">
+        <v>1.74437</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80">
+        <v>700000000</v>
+      </c>
+      <c r="B80">
+        <v>0.63871299999999998</v>
+      </c>
+      <c r="D80">
+        <v>3.6204299999999998</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81">
+        <v>800000000</v>
+      </c>
+      <c r="B81">
+        <v>0.69834399999999996</v>
+      </c>
+      <c r="D81">
+        <v>2.0779299999999998</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82">
+        <v>900000000</v>
+      </c>
+      <c r="B82">
+        <v>0.75968199999999997</v>
+      </c>
+      <c r="D82">
+        <v>2.24505</v>
       </c>
     </row>
   </sheetData>
@@ -3659,1603 +6506,1168 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:B82"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="D2" sqref="D2:D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.73697800000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.73850899999999997</v>
+      </c>
+      <c r="C2">
+        <v>0.699071</v>
+      </c>
+      <c r="D2">
+        <v>1.34674</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.18848</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>0.54563200000000001</v>
+      </c>
+      <c r="C3">
+        <v>0.54541399999999995</v>
+      </c>
+      <c r="D3">
+        <v>3.5834299999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.78242100000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.78985899999999998</v>
+      </c>
+      <c r="C4">
+        <v>0.77843600000000002</v>
+      </c>
+      <c r="D4">
+        <v>4.3548799999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1.0315099999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>1.0326299999999999</v>
+      </c>
+      <c r="C5">
+        <v>1.0180400000000001</v>
+      </c>
+      <c r="D5">
+        <v>3.29237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1.2863599999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>1.28369</v>
+      </c>
+      <c r="C6">
+        <v>1.26437</v>
+      </c>
+      <c r="D6">
+        <v>5.6344599999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1.55169</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>1.53922</v>
+      </c>
+      <c r="C7">
+        <v>1.5163500000000001</v>
+      </c>
+      <c r="D7">
+        <v>4.5755499999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1.8025599999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>1.7997000000000001</v>
+      </c>
+      <c r="C8">
+        <v>1.766</v>
+      </c>
+      <c r="D8">
+        <v>5.2351299999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2.0635300000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>2.0576099999999999</v>
+      </c>
+      <c r="C9">
+        <v>2.01722</v>
+      </c>
+      <c r="D9">
+        <v>7.6056800000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2.26112</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>2.2633100000000002</v>
+      </c>
+      <c r="C10">
+        <v>2.2163599999999999</v>
+      </c>
+      <c r="D10">
+        <v>6.3704499999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2.4576799999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>2.4543300000000001</v>
+      </c>
+      <c r="C11">
+        <v>2.4003100000000002</v>
+      </c>
+      <c r="D11">
+        <v>6.6194800000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>20</v>
       </c>
       <c r="B12">
-        <v>3.3461699999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>3.34585</v>
+      </c>
+      <c r="C12">
+        <v>3.2894299999999999</v>
+      </c>
+      <c r="D12">
+        <v>4.0641400000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>30</v>
       </c>
       <c r="B13">
-        <v>3.5478900000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>3.5413999999999999</v>
+      </c>
+      <c r="C13">
+        <v>3.4936500000000001</v>
+      </c>
+      <c r="D13">
+        <v>6.1395999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>40</v>
       </c>
       <c r="B14">
-        <v>3.42381</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>3.4189500000000002</v>
+      </c>
+      <c r="C14">
+        <v>3.4025400000000001</v>
+      </c>
+      <c r="D14">
+        <v>6.9149200000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>50</v>
       </c>
       <c r="B15">
-        <v>3.2063700000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>3.2058399999999998</v>
+      </c>
+      <c r="C15">
+        <v>3.2319900000000001</v>
+      </c>
+      <c r="D15">
+        <v>6.3796499999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>60</v>
       </c>
       <c r="B16">
-        <v>3.34246</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>3.33765</v>
+      </c>
+      <c r="C16">
+        <v>3.3262999999999998</v>
+      </c>
+      <c r="D16">
+        <v>4.6186699999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>70</v>
       </c>
       <c r="B17">
-        <v>3.3222200000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>3.3040799999999999</v>
+      </c>
+      <c r="C17">
+        <v>3.2984300000000002</v>
+      </c>
+      <c r="D17">
+        <v>6.2008000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>80</v>
       </c>
       <c r="B18">
-        <v>3.4068800000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>3.3613499999999998</v>
+      </c>
+      <c r="C18">
+        <v>3.36755</v>
+      </c>
+      <c r="D18">
+        <v>6.4144699999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>90</v>
       </c>
       <c r="B19">
-        <v>3.4319700000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>3.4272399999999998</v>
+      </c>
+      <c r="C19">
+        <v>3.4172500000000001</v>
+      </c>
+      <c r="D19">
+        <v>5.8047199999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>100</v>
       </c>
       <c r="B20">
-        <v>3.35161</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>3.3477299999999999</v>
+      </c>
+      <c r="C20">
+        <v>3.34</v>
+      </c>
+      <c r="D20">
+        <v>7.51363</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>200</v>
       </c>
       <c r="B21">
-        <v>3.5030800000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>3.4850400000000001</v>
+      </c>
+      <c r="C21">
+        <v>3.4744100000000002</v>
+      </c>
+      <c r="D21">
+        <v>7.5971500000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>300</v>
       </c>
       <c r="B22">
-        <v>3.5548700000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>3.54698</v>
+      </c>
+      <c r="C22">
+        <v>3.5460400000000001</v>
+      </c>
+      <c r="D22">
+        <v>8.0799599999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>400</v>
       </c>
       <c r="B23">
-        <v>3.6512099999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>3.63639</v>
+      </c>
+      <c r="C23">
+        <v>3.6359699999999999</v>
+      </c>
+      <c r="D23">
+        <v>6.8417000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>500</v>
       </c>
       <c r="B24">
-        <v>4.29711</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>4.2897499999999997</v>
+      </c>
+      <c r="C24">
+        <v>4.3007999999999997</v>
+      </c>
+      <c r="D24">
+        <v>9.0690200000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>600</v>
       </c>
       <c r="B25">
-        <v>4.7110200000000004</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>4.7061999999999999</v>
+      </c>
+      <c r="C25">
+        <v>4.7161099999999996</v>
+      </c>
+      <c r="D25">
+        <v>9.4853900000000007</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>700</v>
       </c>
       <c r="B26">
-        <v>4.40428</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>4.4103599999999998</v>
+      </c>
+      <c r="C26">
+        <v>4.4132800000000003</v>
+      </c>
+      <c r="D26">
+        <v>8.3420900000000007</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>800</v>
       </c>
       <c r="B27">
-        <v>3.79834</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>3.7359499999999999</v>
+      </c>
+      <c r="C27">
+        <v>3.7288100000000002</v>
+      </c>
+      <c r="D27">
+        <v>10.6275</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>900</v>
       </c>
       <c r="B28">
-        <v>4.4044100000000004</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>4.3912399999999998</v>
+      </c>
+      <c r="C28">
+        <v>4.4045800000000002</v>
+      </c>
+      <c r="D28">
+        <v>9.4695099999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>1000</v>
       </c>
       <c r="B29">
-        <v>4.4363999999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>4.4122899999999996</v>
+      </c>
+      <c r="C29">
+        <v>4.4356299999999997</v>
+      </c>
+      <c r="D29">
+        <v>10.107100000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>2000</v>
       </c>
       <c r="B30">
-        <v>4.5320999999999998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>4.4470299999999998</v>
+      </c>
+      <c r="C30">
+        <v>4.4602300000000001</v>
+      </c>
+      <c r="D30">
+        <v>16.2013</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>3000</v>
       </c>
       <c r="B31">
-        <v>5.4031799999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>5.30722</v>
+      </c>
+      <c r="C31">
+        <v>5.3501700000000003</v>
+      </c>
+      <c r="D31">
+        <v>20.289000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>4000</v>
       </c>
       <c r="B32">
-        <v>4.9034599999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>4.8786300000000002</v>
+      </c>
+      <c r="C32">
+        <v>4.8865800000000004</v>
+      </c>
+      <c r="D32">
+        <v>24.0017</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>5000</v>
       </c>
       <c r="B33">
-        <v>4.1573900000000004</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>4.1272399999999996</v>
+      </c>
+      <c r="C33">
+        <v>4.1432099999999998</v>
+      </c>
+      <c r="D33">
+        <v>24.454499999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>6000</v>
       </c>
       <c r="B34">
-        <v>7.1775900000000004</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>6.9954299999999998</v>
+      </c>
+      <c r="C34">
+        <v>7.03749</v>
+      </c>
+      <c r="D34">
+        <v>26.214600000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>7000</v>
       </c>
       <c r="B35">
-        <v>4.8925799999999997</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>4.8689200000000001</v>
+      </c>
+      <c r="C35">
+        <v>4.9012000000000002</v>
+      </c>
+      <c r="D35">
+        <v>26.297899999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>8000</v>
       </c>
       <c r="B36">
-        <v>6.5146600000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>6.51044</v>
+      </c>
+      <c r="C36">
+        <v>6.5371300000000003</v>
+      </c>
+      <c r="D36">
+        <v>25.483499999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>9000</v>
       </c>
       <c r="B37">
-        <v>5.2526299999999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>5.2390499999999998</v>
+      </c>
+      <c r="C37">
+        <v>5.2524300000000004</v>
+      </c>
+      <c r="D37">
+        <v>26.445699999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>10000</v>
       </c>
       <c r="B38">
-        <v>5.6310799999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>5.6132799999999996</v>
+      </c>
+      <c r="C38">
+        <v>5.6448299999999998</v>
+      </c>
+      <c r="D38">
+        <v>26.421900000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>20000</v>
       </c>
       <c r="B39">
-        <v>6.2344999999999997</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>6.2296699999999996</v>
+      </c>
+      <c r="C39">
+        <v>6.2288199999999998</v>
+      </c>
+      <c r="D39">
+        <v>17.551200000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>30000</v>
       </c>
       <c r="B40">
-        <v>6.2395300000000002</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>6.2318499999999997</v>
+      </c>
+      <c r="C40">
+        <v>6.2373399999999997</v>
+      </c>
+      <c r="D40">
+        <v>17.654499999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41">
         <v>40000</v>
       </c>
       <c r="B41">
-        <v>6.1083400000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>6.1065899999999997</v>
+      </c>
+      <c r="C41">
+        <v>6.1054700000000004</v>
+      </c>
+      <c r="D41">
+        <v>13.079800000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42">
         <v>50000</v>
       </c>
       <c r="B42">
-        <v>6.2521000000000004</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>6.2530200000000002</v>
+      </c>
+      <c r="C42">
+        <v>6.2545700000000002</v>
+      </c>
+      <c r="D42">
+        <v>9.0512300000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43">
         <v>60000</v>
       </c>
       <c r="B43">
-        <v>5.6649799999999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>5.7136800000000001</v>
+      </c>
+      <c r="C43">
+        <v>5.6640899999999998</v>
+      </c>
+      <c r="D43">
+        <v>10.5715</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44">
         <v>70000</v>
       </c>
       <c r="B44">
-        <v>5.5128599999999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>5.57348</v>
+      </c>
+      <c r="C44">
+        <v>5.5121000000000002</v>
+      </c>
+      <c r="D44">
+        <v>4.42103</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45">
         <v>80000</v>
       </c>
       <c r="B45">
-        <v>5.5247999999999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>5.5440800000000001</v>
+      </c>
+      <c r="C45">
+        <v>5.5321899999999999</v>
+      </c>
+      <c r="D45">
+        <v>11.2256</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46">
         <v>90000</v>
       </c>
       <c r="B46">
-        <v>4.5097800000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>4.5220200000000004</v>
+      </c>
+      <c r="C46">
+        <v>4.5141299999999998</v>
+      </c>
+      <c r="D46">
+        <v>6.32918</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47">
         <v>100000</v>
       </c>
       <c r="B47">
-        <v>4.3609499999999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>4.3686299999999996</v>
+      </c>
+      <c r="C47">
+        <v>4.3628</v>
+      </c>
+      <c r="D47">
+        <v>4.7847900000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48">
         <v>200000</v>
       </c>
       <c r="B48">
-        <v>3.97071</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>3.9888300000000001</v>
+      </c>
+      <c r="C48">
+        <v>3.97376</v>
+      </c>
+      <c r="D48">
+        <v>7.2063499999999996</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49">
         <v>300000</v>
       </c>
       <c r="B49">
-        <v>3.7985000000000002</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>3.8055699999999999</v>
+      </c>
+      <c r="C49">
+        <v>3.7946300000000002</v>
+      </c>
+      <c r="D49">
+        <v>6.1748200000000004</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50">
         <v>400000</v>
       </c>
       <c r="B50">
-        <v>3.3330899999999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>3.3267500000000001</v>
+      </c>
+      <c r="C50">
+        <v>3.3314300000000001</v>
+      </c>
+      <c r="D50">
+        <v>4.3421399999999997</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51">
         <v>500000</v>
       </c>
       <c r="B51">
-        <v>1.46288</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>1.46296</v>
+      </c>
+      <c r="C51">
+        <v>1.4655100000000001</v>
+      </c>
+      <c r="D51">
+        <v>2.2586300000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52">
         <v>600000</v>
       </c>
       <c r="B52">
-        <v>0.95473399999999997</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>0.95713700000000002</v>
+      </c>
+      <c r="C52">
+        <v>0.95613899999999996</v>
+      </c>
+      <c r="D52">
+        <v>2.0712899999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53">
         <v>700000</v>
       </c>
       <c r="B53">
-        <v>2.4627400000000002</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>2.4656899999999999</v>
+      </c>
+      <c r="C53">
+        <v>2.4626999999999999</v>
+      </c>
+      <c r="D53">
+        <v>1.7008300000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54">
         <v>800000</v>
       </c>
       <c r="B54">
-        <v>1.0404199999999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>1.03566</v>
+      </c>
+      <c r="C54">
+        <v>1.0448999999999999</v>
+      </c>
+      <c r="D54">
+        <v>5.1630700000000003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55">
         <v>900000</v>
       </c>
       <c r="B55">
-        <v>0.73188299999999995</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.73849699999999996</v>
+      </c>
+      <c r="C55">
+        <v>0.73370899999999994</v>
+      </c>
+      <c r="D55">
+        <v>3.0850499999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56">
         <v>1000000</v>
       </c>
       <c r="B56">
-        <v>0.74340899999999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.74384399999999995</v>
+      </c>
+      <c r="C56">
+        <v>0.74456100000000003</v>
+      </c>
+      <c r="D56">
+        <v>1.79352</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57">
         <v>2000000</v>
       </c>
       <c r="B57">
-        <v>0.79785200000000001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
+        <v>0.79941200000000001</v>
+      </c>
+      <c r="C57">
+        <v>0.79780399999999996</v>
+      </c>
+      <c r="D57">
+        <v>4.2347099999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58">
         <v>3000000</v>
       </c>
       <c r="B58">
-        <v>0.71393200000000001</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.71395900000000001</v>
+      </c>
+      <c r="C58">
+        <v>0.71237399999999995</v>
+      </c>
+      <c r="D58">
+        <v>3.81054</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59">
         <v>4000000</v>
       </c>
       <c r="B59">
-        <v>0.85744299999999996</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.86091200000000001</v>
+      </c>
+      <c r="C59">
+        <v>0.86059600000000003</v>
+      </c>
+      <c r="D59">
+        <v>4.6428000000000003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60">
         <v>5000000</v>
       </c>
       <c r="B60">
-        <v>0.51044999999999996</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.51121000000000005</v>
+      </c>
+      <c r="C60">
+        <v>0.51253400000000005</v>
+      </c>
+      <c r="D60">
+        <v>1.0660400000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61">
         <v>6000000</v>
       </c>
       <c r="B61">
-        <v>0.67875099999999999</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.67675700000000005</v>
+      </c>
+      <c r="C61">
+        <v>0.67911500000000002</v>
+      </c>
+      <c r="D61">
+        <v>1.07782</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62">
         <v>7000000</v>
       </c>
       <c r="B62">
-        <v>0.52566999999999997</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.524177</v>
+      </c>
+      <c r="C62">
+        <v>0.52582799999999996</v>
+      </c>
+      <c r="D62">
+        <v>2.6194000000000002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63">
         <v>8000000</v>
       </c>
       <c r="B63">
-        <v>0.68091400000000002</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.6865</v>
+      </c>
+      <c r="C63">
+        <v>0.68600899999999998</v>
+      </c>
+      <c r="D63">
+        <v>4.2573699999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64">
         <v>9000000</v>
       </c>
       <c r="B64">
-        <v>0.52359800000000001</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.52647600000000006</v>
+      </c>
+      <c r="C64">
+        <v>0.52649199999999996</v>
+      </c>
+      <c r="D64">
+        <v>1.0582100000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65">
         <v>10000000</v>
       </c>
       <c r="B65">
-        <v>0.54277500000000001</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.54651700000000003</v>
+      </c>
+      <c r="C65">
+        <v>0.54524399999999995</v>
+      </c>
+      <c r="D65">
+        <v>2.6067800000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66">
         <v>20000000</v>
       </c>
       <c r="B66">
-        <v>0.27812399999999998</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.29760999999999999</v>
+      </c>
+      <c r="C66">
+        <v>0.27904099999999998</v>
+      </c>
+      <c r="D66">
+        <v>2.4574699999999998</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67">
         <v>30000000</v>
       </c>
       <c r="B67">
-        <v>0.27336700000000003</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.29287000000000002</v>
+      </c>
+      <c r="C67">
+        <v>0.282667</v>
+      </c>
+      <c r="D67">
+        <v>2.48176</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68">
         <v>40000000</v>
       </c>
       <c r="B68">
-        <v>0.29597000000000001</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.302425</v>
+      </c>
+      <c r="C68">
+        <v>0.29886200000000002</v>
+      </c>
+      <c r="D68">
+        <v>2.51877</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69">
         <v>50000000</v>
       </c>
       <c r="B69">
-        <v>0.33139600000000002</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.353966</v>
+      </c>
+      <c r="C69">
+        <v>0.345501</v>
+      </c>
+      <c r="D69">
+        <v>2.4315099999999998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70">
         <v>60000000</v>
       </c>
       <c r="B70">
-        <v>0.271812</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.29792999999999997</v>
+      </c>
+      <c r="C70">
+        <v>0.28395799999999999</v>
+      </c>
+      <c r="D70">
+        <v>2.47926</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71">
         <v>70000000</v>
       </c>
       <c r="B71">
-        <v>0.275059</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.30146499999999998</v>
+      </c>
+      <c r="C71">
+        <v>0.28975499999999998</v>
+      </c>
+      <c r="D71">
+        <v>2.4053100000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72">
         <v>80000000</v>
       </c>
       <c r="B72">
-        <v>0.28990199999999999</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.29957099999999998</v>
+      </c>
+      <c r="C72">
+        <v>0.30158299999999999</v>
+      </c>
+      <c r="D72">
+        <v>0.759104</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73">
         <v>90000000</v>
       </c>
       <c r="B73">
-        <v>0.28826800000000002</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.30918600000000002</v>
+      </c>
+      <c r="C73">
+        <v>0.29560700000000001</v>
+      </c>
+      <c r="D73">
+        <v>2.4962300000000002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74">
         <v>100000000</v>
       </c>
       <c r="B74">
-        <v>0.28385100000000002</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.325374</v>
+      </c>
+      <c r="C74">
+        <v>0.29480000000000001</v>
+      </c>
+      <c r="D74">
+        <v>0.82228500000000004</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75">
         <v>200000000</v>
       </c>
       <c r="B75">
-        <v>0.34338000000000002</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.370087</v>
+      </c>
+      <c r="C75">
+        <v>0.35108899999999998</v>
+      </c>
+      <c r="D75">
+        <v>1.07612</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76">
         <v>300000000</v>
       </c>
       <c r="B76">
-        <v>0.39765499999999998</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.43329699999999999</v>
+      </c>
+      <c r="C76">
+        <v>0.40447300000000003</v>
+      </c>
+      <c r="D76">
+        <v>1.24254</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77">
         <v>400000000</v>
       </c>
       <c r="B77">
-        <v>0.45774500000000001</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.46961199999999997</v>
+      </c>
+      <c r="C77">
+        <v>0.46454800000000002</v>
+      </c>
+      <c r="D77">
+        <v>3.1190500000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78">
         <v>500000000</v>
       </c>
       <c r="B78">
-        <v>0.51774600000000004</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.52801500000000001</v>
+      </c>
+      <c r="C78">
+        <v>0.52417199999999997</v>
+      </c>
+      <c r="D78">
+        <v>3.2856700000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79">
         <v>600000000</v>
       </c>
       <c r="B79">
-        <v>0.57793300000000003</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.58525700000000003</v>
+      </c>
+      <c r="C79">
+        <v>0.58501000000000003</v>
+      </c>
+      <c r="D79">
+        <v>1.7430099999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80">
         <v>700000000</v>
       </c>
       <c r="B80">
-        <v>0.63871299999999998</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.64609700000000003</v>
+      </c>
+      <c r="C80">
+        <v>0.646926</v>
+      </c>
+      <c r="D80">
+        <v>3.6189100000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81">
         <v>800000000</v>
       </c>
       <c r="B81">
-        <v>0.69834399999999996</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.72716199999999998</v>
+      </c>
+      <c r="C81">
+        <v>0.70519699999999996</v>
+      </c>
+      <c r="D81">
+        <v>2.0763099999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82">
         <v>900000000</v>
       </c>
       <c r="B82">
-        <v>0.75968199999999997</v>
+        <v>0.776814</v>
+      </c>
+      <c r="C82">
+        <v>0.77049900000000004</v>
+      </c>
+      <c r="D82">
+        <v>2.24295</v>
       </c>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:C82"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0.73850899999999997</v>
-      </c>
-      <c r="C2">
-        <v>0.699071</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0.54563200000000001</v>
-      </c>
-      <c r="C3">
-        <v>0.54541399999999995</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>0.78985899999999998</v>
-      </c>
-      <c r="C4">
-        <v>0.77843600000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1.0326299999999999</v>
-      </c>
-      <c r="C5">
-        <v>1.0180400000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>1.28369</v>
-      </c>
-      <c r="C6">
-        <v>1.26437</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>1.53922</v>
-      </c>
-      <c r="C7">
-        <v>1.5163500000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>1.7997000000000001</v>
-      </c>
-      <c r="C8">
-        <v>1.766</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>2.0576099999999999</v>
-      </c>
-      <c r="C9">
-        <v>2.01722</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>2.2633100000000002</v>
-      </c>
-      <c r="C10">
-        <v>2.2163599999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>2.4543300000000001</v>
-      </c>
-      <c r="C11">
-        <v>2.4003100000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
-        <v>20</v>
-      </c>
-      <c r="B12">
-        <v>3.34585</v>
-      </c>
-      <c r="C12">
-        <v>3.2894299999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
-        <v>30</v>
-      </c>
-      <c r="B13">
-        <v>3.5413999999999999</v>
-      </c>
-      <c r="C13">
-        <v>3.4936500000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14">
-        <v>40</v>
-      </c>
-      <c r="B14">
-        <v>3.4189500000000002</v>
-      </c>
-      <c r="C14">
-        <v>3.4025400000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15">
-        <v>50</v>
-      </c>
-      <c r="B15">
-        <v>3.2058399999999998</v>
-      </c>
-      <c r="C15">
-        <v>3.2319900000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16">
-        <v>60</v>
-      </c>
-      <c r="B16">
-        <v>3.33765</v>
-      </c>
-      <c r="C16">
-        <v>3.3262999999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
-        <v>70</v>
-      </c>
-      <c r="B17">
-        <v>3.3040799999999999</v>
-      </c>
-      <c r="C17">
-        <v>3.2984300000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18">
-        <v>80</v>
-      </c>
-      <c r="B18">
-        <v>3.3613499999999998</v>
-      </c>
-      <c r="C18">
-        <v>3.36755</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19">
-        <v>90</v>
-      </c>
-      <c r="B19">
-        <v>3.4272399999999998</v>
-      </c>
-      <c r="C19">
-        <v>3.4172500000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20">
-        <v>100</v>
-      </c>
-      <c r="B20">
-        <v>3.3477299999999999</v>
-      </c>
-      <c r="C20">
-        <v>3.34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21">
-        <v>200</v>
-      </c>
-      <c r="B21">
-        <v>3.4850400000000001</v>
-      </c>
-      <c r="C21">
-        <v>3.4744100000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22">
-        <v>300</v>
-      </c>
-      <c r="B22">
-        <v>3.54698</v>
-      </c>
-      <c r="C22">
-        <v>3.5460400000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23">
-        <v>400</v>
-      </c>
-      <c r="B23">
-        <v>3.63639</v>
-      </c>
-      <c r="C23">
-        <v>3.6359699999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24">
-        <v>500</v>
-      </c>
-      <c r="B24">
-        <v>4.2897499999999997</v>
-      </c>
-      <c r="C24">
-        <v>4.3007999999999997</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25">
-        <v>600</v>
-      </c>
-      <c r="B25">
-        <v>4.7061999999999999</v>
-      </c>
-      <c r="C25">
-        <v>4.7161099999999996</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26">
-        <v>700</v>
-      </c>
-      <c r="B26">
-        <v>4.4103599999999998</v>
-      </c>
-      <c r="C26">
-        <v>4.4132800000000003</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27">
-        <v>800</v>
-      </c>
-      <c r="B27">
-        <v>3.7359499999999999</v>
-      </c>
-      <c r="C27">
-        <v>3.7288100000000002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28">
-        <v>900</v>
-      </c>
-      <c r="B28">
-        <v>4.3912399999999998</v>
-      </c>
-      <c r="C28">
-        <v>4.4045800000000002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29">
-        <v>1000</v>
-      </c>
-      <c r="B29">
-        <v>4.4122899999999996</v>
-      </c>
-      <c r="C29">
-        <v>4.4356299999999997</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30">
-        <v>2000</v>
-      </c>
-      <c r="B30">
-        <v>4.4470299999999998</v>
-      </c>
-      <c r="C30">
-        <v>4.4602300000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31">
-        <v>3000</v>
-      </c>
-      <c r="B31">
-        <v>5.30722</v>
-      </c>
-      <c r="C31">
-        <v>5.3501700000000003</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32">
-        <v>4000</v>
-      </c>
-      <c r="B32">
-        <v>4.8786300000000002</v>
-      </c>
-      <c r="C32">
-        <v>4.8865800000000004</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33">
-        <v>5000</v>
-      </c>
-      <c r="B33">
-        <v>4.1272399999999996</v>
-      </c>
-      <c r="C33">
-        <v>4.1432099999999998</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34">
-        <v>6000</v>
-      </c>
-      <c r="B34">
-        <v>6.9954299999999998</v>
-      </c>
-      <c r="C34">
-        <v>7.03749</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35">
-        <v>7000</v>
-      </c>
-      <c r="B35">
-        <v>4.8689200000000001</v>
-      </c>
-      <c r="C35">
-        <v>4.9012000000000002</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36">
-        <v>8000</v>
-      </c>
-      <c r="B36">
-        <v>6.51044</v>
-      </c>
-      <c r="C36">
-        <v>6.5371300000000003</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37">
-        <v>9000</v>
-      </c>
-      <c r="B37">
-        <v>5.2390499999999998</v>
-      </c>
-      <c r="C37">
-        <v>5.2524300000000004</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38">
-        <v>10000</v>
-      </c>
-      <c r="B38">
-        <v>5.6132799999999996</v>
-      </c>
-      <c r="C38">
-        <v>5.6448299999999998</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39">
-        <v>20000</v>
-      </c>
-      <c r="B39">
-        <v>6.2296699999999996</v>
-      </c>
-      <c r="C39">
-        <v>6.2288199999999998</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40">
-        <v>30000</v>
-      </c>
-      <c r="B40">
-        <v>6.2318499999999997</v>
-      </c>
-      <c r="C40">
-        <v>6.2373399999999997</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41">
-        <v>40000</v>
-      </c>
-      <c r="B41">
-        <v>6.1065899999999997</v>
-      </c>
-      <c r="C41">
-        <v>6.1054700000000004</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42">
-        <v>50000</v>
-      </c>
-      <c r="B42">
-        <v>6.2530200000000002</v>
-      </c>
-      <c r="C42">
-        <v>6.2545700000000002</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43">
-        <v>60000</v>
-      </c>
-      <c r="B43">
-        <v>5.7136800000000001</v>
-      </c>
-      <c r="C43">
-        <v>5.6640899999999998</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44">
-        <v>70000</v>
-      </c>
-      <c r="B44">
-        <v>5.57348</v>
-      </c>
-      <c r="C44">
-        <v>5.5121000000000002</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45">
-        <v>80000</v>
-      </c>
-      <c r="B45">
-        <v>5.5440800000000001</v>
-      </c>
-      <c r="C45">
-        <v>5.5321899999999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46">
-        <v>90000</v>
-      </c>
-      <c r="B46">
-        <v>4.5220200000000004</v>
-      </c>
-      <c r="C46">
-        <v>4.5141299999999998</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47">
-        <v>100000</v>
-      </c>
-      <c r="B47">
-        <v>4.3686299999999996</v>
-      </c>
-      <c r="C47">
-        <v>4.3628</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48">
-        <v>200000</v>
-      </c>
-      <c r="B48">
-        <v>3.9888300000000001</v>
-      </c>
-      <c r="C48">
-        <v>3.97376</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49">
-        <v>300000</v>
-      </c>
-      <c r="B49">
-        <v>3.8055699999999999</v>
-      </c>
-      <c r="C49">
-        <v>3.7946300000000002</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50">
-        <v>400000</v>
-      </c>
-      <c r="B50">
-        <v>3.3267500000000001</v>
-      </c>
-      <c r="C50">
-        <v>3.3314300000000001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51">
-        <v>500000</v>
-      </c>
-      <c r="B51">
-        <v>1.46296</v>
-      </c>
-      <c r="C51">
-        <v>1.4655100000000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52">
-        <v>600000</v>
-      </c>
-      <c r="B52">
-        <v>0.95713700000000002</v>
-      </c>
-      <c r="C52">
-        <v>0.95613899999999996</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53">
-        <v>700000</v>
-      </c>
-      <c r="B53">
-        <v>2.4656899999999999</v>
-      </c>
-      <c r="C53">
-        <v>2.4626999999999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54">
-        <v>800000</v>
-      </c>
-      <c r="B54">
-        <v>1.03566</v>
-      </c>
-      <c r="C54">
-        <v>1.0448999999999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55">
-        <v>900000</v>
-      </c>
-      <c r="B55">
-        <v>0.73849699999999996</v>
-      </c>
-      <c r="C55">
-        <v>0.73370899999999994</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56">
-        <v>1000000</v>
-      </c>
-      <c r="B56">
-        <v>0.74384399999999995</v>
-      </c>
-      <c r="C56">
-        <v>0.74456100000000003</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57">
-        <v>2000000</v>
-      </c>
-      <c r="B57">
-        <v>0.79941200000000001</v>
-      </c>
-      <c r="C57">
-        <v>0.79780399999999996</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58">
-        <v>3000000</v>
-      </c>
-      <c r="B58">
-        <v>0.71395900000000001</v>
-      </c>
-      <c r="C58">
-        <v>0.71237399999999995</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59">
-        <v>4000000</v>
-      </c>
-      <c r="B59">
-        <v>0.86091200000000001</v>
-      </c>
-      <c r="C59">
-        <v>0.86059600000000003</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60">
-        <v>5000000</v>
-      </c>
-      <c r="B60">
-        <v>0.51121000000000005</v>
-      </c>
-      <c r="C60">
-        <v>0.51253400000000005</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61">
-        <v>6000000</v>
-      </c>
-      <c r="B61">
-        <v>0.67675700000000005</v>
-      </c>
-      <c r="C61">
-        <v>0.67911500000000002</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62">
-        <v>7000000</v>
-      </c>
-      <c r="B62">
-        <v>0.524177</v>
-      </c>
-      <c r="C62">
-        <v>0.52582799999999996</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63">
-        <v>8000000</v>
-      </c>
-      <c r="B63">
-        <v>0.6865</v>
-      </c>
-      <c r="C63">
-        <v>0.68600899999999998</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64">
-        <v>9000000</v>
-      </c>
-      <c r="B64">
-        <v>0.52647600000000006</v>
-      </c>
-      <c r="C64">
-        <v>0.52649199999999996</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65">
-        <v>10000000</v>
-      </c>
-      <c r="B65">
-        <v>0.54651700000000003</v>
-      </c>
-      <c r="C65">
-        <v>0.54524399999999995</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66">
-        <v>20000000</v>
-      </c>
-      <c r="B66">
-        <v>0.29760999999999999</v>
-      </c>
-      <c r="C66">
-        <v>0.27904099999999998</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67">
-        <v>30000000</v>
-      </c>
-      <c r="B67">
-        <v>0.29287000000000002</v>
-      </c>
-      <c r="C67">
-        <v>0.282667</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68">
-        <v>40000000</v>
-      </c>
-      <c r="B68">
-        <v>0.302425</v>
-      </c>
-      <c r="C68">
-        <v>0.29886200000000002</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69">
-        <v>50000000</v>
-      </c>
-      <c r="B69">
-        <v>0.353966</v>
-      </c>
-      <c r="C69">
-        <v>0.345501</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70">
-        <v>60000000</v>
-      </c>
-      <c r="B70">
-        <v>0.29792999999999997</v>
-      </c>
-      <c r="C70">
-        <v>0.28395799999999999</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71">
-        <v>70000000</v>
-      </c>
-      <c r="B71">
-        <v>0.30146499999999998</v>
-      </c>
-      <c r="C71">
-        <v>0.28975499999999998</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72">
-        <v>80000000</v>
-      </c>
-      <c r="B72">
-        <v>0.29957099999999998</v>
-      </c>
-      <c r="C72">
-        <v>0.30158299999999999</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73">
-        <v>90000000</v>
-      </c>
-      <c r="B73">
-        <v>0.30918600000000002</v>
-      </c>
-      <c r="C73">
-        <v>0.29560700000000001</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74">
-        <v>100000000</v>
-      </c>
-      <c r="B74">
-        <v>0.325374</v>
-      </c>
-      <c r="C74">
-        <v>0.29480000000000001</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75">
-        <v>200000000</v>
-      </c>
-      <c r="B75">
-        <v>0.370087</v>
-      </c>
-      <c r="C75">
-        <v>0.35108899999999998</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76">
-        <v>300000000</v>
-      </c>
-      <c r="B76">
-        <v>0.43329699999999999</v>
-      </c>
-      <c r="C76">
-        <v>0.40447300000000003</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77">
-        <v>400000000</v>
-      </c>
-      <c r="B77">
-        <v>0.46961199999999997</v>
-      </c>
-      <c r="C77">
-        <v>0.46454800000000002</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78">
-        <v>500000000</v>
-      </c>
-      <c r="B78">
-        <v>0.52801500000000001</v>
-      </c>
-      <c r="C78">
-        <v>0.52417199999999997</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79">
-        <v>600000000</v>
-      </c>
-      <c r="B79">
-        <v>0.58525700000000003</v>
-      </c>
-      <c r="C79">
-        <v>0.58501000000000003</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80">
-        <v>700000000</v>
-      </c>
-      <c r="B80">
-        <v>0.64609700000000003</v>
-      </c>
-      <c r="C80">
-        <v>0.646926</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81">
-        <v>800000000</v>
-      </c>
-      <c r="B81">
-        <v>0.72716199999999998</v>
-      </c>
-      <c r="C81">
-        <v>0.70519699999999996</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82">
-        <v>900000000</v>
-      </c>
-      <c r="B82">
-        <v>0.776814</v>
-      </c>
-      <c r="C82">
-        <v>0.77049900000000004</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
